--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1289804.171282794</v>
+        <v>1287103.521659487</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673445</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>72.36698404190648</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>194.8702723308017</v>
+        <v>26.95228090977687</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.52670189341621</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>112.7790814671323</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.51020799533</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.0198440937168</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825859</v>
+        <v>12.42130226825858</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.38935721520049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3593638980476</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
-        <v>37.38189098918026</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.0137567536335</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31604239259354</v>
+        <v>36.31604239259327</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>224.1194699438869</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.35463880457038</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422478302</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.177322371449</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.491627498362</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.172251807372</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>46.13346796446901</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>2.739389635060738</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>60.58827828646737</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>158.8647187371884</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>138.7607960589083</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860842</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>124.1004521009521</v>
+        <v>124.1004521009499</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>150.7348609739185</v>
+        <v>81.3725990111934</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>3.510152168928471e-12</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756239</v>
+        <v>99.97427419833474</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428145</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>126.4267013134144</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.32649042089854</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853692</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427805</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>54.32649042089687</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892479</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>36.21070476472222</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833934</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>171.5573199799897</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>103.168699193621</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>265.9042934353375</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.21471514853008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417119</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833988</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012018</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>158.2472899190618</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.55695577161193</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344767</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344767</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344767</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344767</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672986</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>827.4467551159955</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016547</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="X2" t="n">
-        <v>553.8524235344767</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344767</v>
+        <v>307.3840804899463</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>46.96951069551282</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545989</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>858.0168610860233</v>
+        <v>546.0071558463937</v>
       </c>
       <c r="Y3" t="n">
-        <v>650.2565623210693</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.1529116249524</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="C4" t="n">
-        <v>298.1529116249524</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="D4" t="n">
-        <v>298.1529116249524</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>150.2398180425592</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>150.2398180425592</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>150.2398180425592</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2398180425592</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987222</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>700.5939555987222</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>700.5939555987222</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5939555987222</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>700.5939555987222</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="Y4" t="n">
-        <v>479.8013764551921</v>
+        <v>224.9087497860236</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.13385824463846</v>
+        <v>530.4703790195942</v>
       </c>
       <c r="C5" t="n">
-        <v>50.13385824463846</v>
+        <v>530.4703790195942</v>
       </c>
       <c r="D5" t="n">
-        <v>50.13385824463846</v>
+        <v>530.4703790195942</v>
       </c>
       <c r="E5" t="n">
-        <v>50.13385824463846</v>
+        <v>530.4703790195942</v>
       </c>
       <c r="F5" t="n">
-        <v>43.18835749543499</v>
+        <v>143.5816476117994</v>
       </c>
       <c r="G5" t="n">
-        <v>30.64158752749701</v>
+        <v>131.0348776438615</v>
       </c>
       <c r="H5" t="n">
-        <v>30.64158752749701</v>
+        <v>131.0348776438615</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749701</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281282</v>
+        <v>93.51877468281452</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452956</v>
+        <v>238.4938972452989</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192512</v>
+        <v>455.2501182192564</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494169</v>
+        <v>728.1026159494245</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730193</v>
+        <v>1009.983960730204</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145358</v>
+        <v>1262.821260145371</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739586</v>
+        <v>1444.111044739601</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374851</v>
+        <v>1532.079376374867</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374851</v>
+        <v>1532.079376374867</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374851</v>
+        <v>1387.271938094011</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374851</v>
+        <v>1174.663486810244</v>
       </c>
       <c r="U5" t="n">
-        <v>1494.319890527194</v>
+        <v>1174.663486810244</v>
       </c>
       <c r="V5" t="n">
-        <v>1163.257003183623</v>
+        <v>1174.663486810244</v>
       </c>
       <c r="W5" t="n">
-        <v>810.488347913509</v>
+        <v>821.8948315401296</v>
       </c>
       <c r="X5" t="n">
-        <v>437.0225896524291</v>
+        <v>821.8948315401296</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.13385824463846</v>
+        <v>821.8948315401296</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.32445863112686</v>
+        <v>517.1904547900665</v>
       </c>
       <c r="C6" t="n">
-        <v>67.32445863112686</v>
+        <v>342.7374255089395</v>
       </c>
       <c r="D6" t="n">
-        <v>67.32445863112686</v>
+        <v>226.5619136365824</v>
       </c>
       <c r="E6" t="n">
-        <v>67.32445863112686</v>
+        <v>67.3244586311269</v>
       </c>
       <c r="F6" t="n">
-        <v>67.32445863112686</v>
+        <v>67.3244586311269</v>
       </c>
       <c r="G6" t="n">
-        <v>67.32445863112686</v>
+        <v>67.3244586311269</v>
       </c>
       <c r="H6" t="n">
-        <v>67.32445863112686</v>
+        <v>67.3244586311269</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749701</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835557</v>
+        <v>49.27296248835665</v>
       </c>
       <c r="K6" t="n">
-        <v>159.2717745831297</v>
+        <v>159.2717745831321</v>
       </c>
       <c r="L6" t="n">
-        <v>361.7233626622874</v>
+        <v>448.9177571045031</v>
       </c>
       <c r="M6" t="n">
-        <v>607.7369179582228</v>
+        <v>828.1074027572827</v>
       </c>
       <c r="N6" t="n">
-        <v>874.6703649424084</v>
+        <v>1095.04084974147</v>
       </c>
       <c r="O6" t="n">
-        <v>1096.642524052408</v>
+        <v>1317.013008851472</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705183</v>
+        <v>1475.832169705198</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374851</v>
+        <v>1532.079376374867</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374851</v>
+        <v>1532.079376374867</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525656</v>
+        <v>1532.079376374867</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163153</v>
+        <v>1336.169699012364</v>
       </c>
       <c r="U6" t="n">
-        <v>963.5569173034384</v>
+        <v>1336.169699012364</v>
       </c>
       <c r="V6" t="n">
-        <v>737.1736143298152</v>
+        <v>1101.017590780621</v>
       </c>
       <c r="W6" t="n">
-        <v>482.9362576016136</v>
+        <v>1101.017590780621</v>
       </c>
       <c r="X6" t="n">
-        <v>275.0847573960808</v>
+        <v>893.1660905750884</v>
       </c>
       <c r="Y6" t="n">
-        <v>67.32445863112686</v>
+        <v>685.4057918101346</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.5762910841699</v>
+        <v>182.89972893637</v>
       </c>
       <c r="C7" t="n">
-        <v>32.64010815626298</v>
+        <v>182.89972893637</v>
       </c>
       <c r="D7" t="n">
-        <v>32.64010815626298</v>
+        <v>182.89972893637</v>
       </c>
       <c r="E7" t="n">
-        <v>32.64010815626298</v>
+        <v>182.89972893637</v>
       </c>
       <c r="F7" t="n">
-        <v>32.64010815626298</v>
+        <v>182.89972893637</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626298</v>
+        <v>182.89972893637</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626298</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626298</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749701</v>
+        <v>30.64158752749734</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961746997</v>
+        <v>157.2595961747008</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914609</v>
+        <v>374.813488791463</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437674</v>
+        <v>614.5826883437705</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630847</v>
+        <v>854.0853286630889</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.28848610913</v>
+        <v>1059.288486109135</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016227</v>
+        <v>1211.354555016233</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767121</v>
+        <v>1233.202138767127</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767121</v>
+        <v>1112.821005058593</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.202138767121</v>
+        <v>909.2941085956008</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.202138767121</v>
+        <v>909.2941085956008</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.202138767121</v>
+        <v>620.1541806499147</v>
       </c>
       <c r="V7" t="n">
-        <v>978.5176505612338</v>
+        <v>410.8892798343874</v>
       </c>
       <c r="W7" t="n">
-        <v>689.1004805242733</v>
+        <v>410.8892798343874</v>
       </c>
       <c r="X7" t="n">
-        <v>461.1109296262559</v>
+        <v>182.89972893637</v>
       </c>
       <c r="Y7" t="n">
-        <v>240.3183504827258</v>
+        <v>182.89972893637</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496369</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>474.7217947496369</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>116.4560961428864</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>116.4560961428864</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>109.5105953936829</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>97.84624915837585</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>97.84624915837585</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137587</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>575.2365734374698</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>575.2365734374698</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>575.2365734374698</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>427.3234798550767</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4335323571663</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>112.4470676654449</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1373.393300724232</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1084.27496322807</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354872</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374698</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>575.2365734374698</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="F11" t="n">
         <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386832</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856283</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.937563882236</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234586</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455662</v>
+        <v>3826.588132455655</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971442</v>
+        <v>3622.786021971435</v>
       </c>
       <c r="U11" t="n">
-        <v>3482.623601709918</v>
+        <v>3369.295305604043</v>
       </c>
       <c r="V11" t="n">
-        <v>3482.623601709918</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>3482.623601709918</v>
+        <v>2685.463762990358</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2311.998004729278</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>1949.766908076669</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649601</v>
+        <v>900.4499396649586</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259916</v>
+        <v>1518.698809735876</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125666</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.8650582458557</v>
+        <v>203.8650582458532</v>
       </c>
       <c r="C13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="D13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370156</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920202</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.39731136049</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154603</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176428</v>
+        <v>834.2956531176403</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196255</v>
+        <v>606.306102219623</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5135230760953</v>
+        <v>385.5135230760928</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708297</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608048</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698317</v>
+        <v>915.0917312077133</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.562310321959</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635708</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>392.9821521356639</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>392.9821521356639</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>245.0690585532709</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>245.0690585532709</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861978</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693319</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856731</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410166</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410166</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149096</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863479</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178206</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.766099972319</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935358</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373407</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938105</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098234</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819165</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695806</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871876</v>
+        <v>194.8007783998252</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892772</v>
+        <v>194.8007783998252</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041571</v>
+        <v>194.8007783998252</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>408.9258559154849</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2392.08784073087</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2209.233006385774</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1989.631541408715</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>928.4651056120481</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>707.672526468518</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179088</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900019</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776661</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>295.581853395273</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>148.6919058973627</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>148.6919058973627</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,10 +6388,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="32">
@@ -6695,37 +6695,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
         <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675715</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.672861378251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400729</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>344.917417812166</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>344.917417812166</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.917417812166</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>198.0274703142557</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138428</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703127</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7427,31 +7427,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C43" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D43" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235168</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258109</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396421</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.32989935946</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614427</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7631,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,7 +7664,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2404.986360578632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>28.18495819153173</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,13 +8064,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
-        <v>5.262887399594575</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752854</v>
+        <v>34.58458098752757</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,10 +8298,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>8.305120571750592</v>
+        <v>96.38026647297443</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.5213033907496</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>222.59644929197</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>112.1950131448094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.62915296996937</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.14636899767571</v>
+        <v>43.14636899767795</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728922</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613729258</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>14.80719190324842</v>
+        <v>84.16945386597352</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>32.89260457059981</v>
+        <v>40.32043864788914</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393091</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>99.28295407562273</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.04875628922315</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267405002</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.5498640939343</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>85.96822242532701</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>112.4047682534901</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822983</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788565</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>45.84813034729859</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864789</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>20.61870490125347</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>138.4949402405071</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822929</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.33736343303298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>45.44677382459294</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>24.81829093850973</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>962260.0860707172</v>
+        <v>962260.0860707171</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856763.642650512</v>
+        <v>856763.6426505113</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>932230.8968589202</v>
+        <v>932230.8968589208</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186918</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185704</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958227</v>
+        <v>442233.6433958222</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828183</v>
+        <v>481607.8629828185</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26347,13 +26347,13 @@
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103508</v>
+        <v>132064.9098103556</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196386</v>
+        <v>266112.9182196342</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357067</v>
+        <v>325187.1190357052</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051373</v>
+        <v>166521.3471051395</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648318</v>
+        <v>30705.53736648412</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.3803795091</v>
+        <v>65187.38037950807</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456824</v>
+        <v>84929.59434456784</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848895</v>
+        <v>43782.40655848957</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>213728.6998709253</v>
+        <v>213728.699870924</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
       </c>
       <c r="E4" t="n">
-        <v>9848.023364462855</v>
+        <v>9848.023364462853</v>
       </c>
       <c r="F4" t="n">
-        <v>9940.611700543544</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768834</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
+        <v>9947.14432176889</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768901</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="K4" t="n">
-        <v>9947.144321768857</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768861</v>
-      </c>
       <c r="M4" t="n">
-        <v>9947.144321768872</v>
+        <v>9947.144321768901</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768879</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768896</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768912</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589706</v>
+        <v>72540.5095058974</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>86093.72216214699</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-499948.6882075937</v>
+        <v>-499948.6882075933</v>
       </c>
       <c r="C6" t="n">
-        <v>74290.94273139676</v>
+        <v>74290.94273139282</v>
       </c>
       <c r="D6" t="n">
-        <v>-4356.039148135053</v>
+        <v>-4356.039148130803</v>
       </c>
       <c r="E6" t="n">
-        <v>21104.77883350596</v>
+        <v>20894.8145896624</v>
       </c>
       <c r="F6" t="n">
-        <v>205003.775663299</v>
+        <v>204957.8706677314</v>
       </c>
       <c r="G6" t="n">
-        <v>362051.0494327482</v>
+        <v>362016.3115073132</v>
       </c>
       <c r="H6" t="n">
-        <v>373218.2856683276</v>
+        <v>373183.5477428918</v>
       </c>
       <c r="I6" t="n">
-        <v>373218.2856683276</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="J6" t="n">
-        <v>304219.1312492135</v>
+        <v>304184.3933237779</v>
       </c>
       <c r="K6" t="n">
-        <v>342512.7483018446</v>
+        <v>342478.0103764077</v>
       </c>
       <c r="L6" t="n">
-        <v>308030.9052888185</v>
+        <v>307996.1673633837</v>
       </c>
       <c r="M6" t="n">
-        <v>288288.6913237594</v>
+        <v>288253.9533983241</v>
       </c>
       <c r="N6" t="n">
-        <v>329435.8791098387</v>
+        <v>329401.1411844022</v>
       </c>
       <c r="O6" t="n">
-        <v>370194.9876911028</v>
+        <v>370160.2497656672</v>
       </c>
       <c r="P6" t="n">
-        <v>373218.2856683275</v>
+        <v>373183.547742892</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>716.75701766052</v>
+        <v>716.7570176605237</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937127</v>
+        <v>383.0198440937168</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808648</v>
+        <v>981.3883278086464</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,19 +26814,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910416</v>
+        <v>102.7020038910455</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570191</v>
+        <v>217.3078744570154</v>
       </c>
       <c r="E3" t="n">
-        <v>278.105375377017</v>
+        <v>278.1053753770157</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922064</v>
+        <v>119.3059640922106</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063262</v>
+        <v>257.5649880063221</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086076</v>
       </c>
       <c r="F4" t="n">
-        <v>178.756962517358</v>
+        <v>178.7569625173605</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922067</v>
+        <v>119.3059640922108</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063262</v>
+        <v>257.5649880063221</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086076</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517358</v>
+        <v>178.7569625173605</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922064</v>
+        <v>119.3059640922106</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063262</v>
+        <v>257.5649880063221</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086076</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517358</v>
+        <v>178.7569625173605</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442037</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>116.9617832120864</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,16 +27512,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>10.90271287267575</v>
+        <v>178.8207042937006</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.0887711247962</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>9.371492057676264</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>94.22363366815057</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.85620164799468</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936936</v>
+        <v>309.9653033936934</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520107</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980479</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>213.7332470989061</v>
+        <v>251.1151380880864</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562340923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>32.43130881100522</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27710,7 @@
         <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339774</v>
+        <v>97.34583147339765</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.43696300167781</v>
+        <v>4.436963001677299</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
-        <v>8.681117205538385</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.4773413773669</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>166.6984667036611</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629796</v>
+        <v>116.5810943629794</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422477819</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714493</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4916274983622</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.96539151645598</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>19.57644470800148</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>383.4985490209929</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>86.6632308686615</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>61.88397726002358</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-3.510152168928471e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-8.15987277746899e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.598721155460225e-12</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29487,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-3.728217734533245e-12</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-4.168426311850774e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.756044550827055e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88143524687646</v>
+        <v>2.881435246876475</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207356</v>
+        <v>29.50949872207371</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552048</v>
+        <v>111.0865323552054</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845812</v>
+        <v>244.5582147845824</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848618</v>
+        <v>366.5293687848637</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214573</v>
+        <v>454.7120927214597</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930966</v>
+        <v>505.9548167930992</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882844</v>
+        <v>514.1416946882871</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521565</v>
+        <v>485.4894229521591</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948939</v>
+        <v>414.3539902948961</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161305</v>
+        <v>311.1625905161322</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266036</v>
+        <v>181.0009568266046</v>
       </c>
       <c r="S5" t="n">
-        <v>65.6607056881974</v>
+        <v>65.66070568819774</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320171</v>
+        <v>12.61348279320178</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501168</v>
+        <v>0.230514819750118</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835835</v>
+        <v>1.541703773835843</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309873</v>
+        <v>14.88961276309881</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882153</v>
+        <v>53.08059045882181</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342006</v>
+        <v>145.6571973342014</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812016</v>
+        <v>248.9513501812029</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234344</v>
+        <v>334.7458128234362</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249834</v>
+        <v>390.6325746249854</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118036</v>
+        <v>400.9714565118056</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757569</v>
+        <v>366.8105465757588</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160729</v>
+        <v>294.3978022160744</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.797134358413</v>
+        <v>196.797134358414</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096532</v>
+        <v>95.72087115096583</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313491</v>
+        <v>28.63647141313506</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943562</v>
+        <v>6.214148105943595</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576208</v>
+        <v>0.1014278798576213</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797659</v>
+        <v>1.292512654797666</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265556</v>
+        <v>11.49161251265562</v>
       </c>
       <c r="I7" t="n">
-        <v>38.8693805642787</v>
+        <v>38.8693805642789</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419447</v>
+        <v>91.38064469419496</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574007</v>
+        <v>150.1664702574015</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232811</v>
+        <v>192.1613814232821</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970548</v>
+        <v>202.6072336970559</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291728</v>
+        <v>197.7896865291738</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981273</v>
+        <v>182.6907886981283</v>
       </c>
       <c r="P7" t="n">
-        <v>156.323530540255</v>
+        <v>156.3235305402558</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667385</v>
+        <v>108.2303096667391</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572017</v>
+        <v>58.11606900572048</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5249705386101</v>
+        <v>22.52497053861022</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499086</v>
+        <v>5.522554070499115</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169056</v>
+        <v>0.07050069026169094</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256416</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>237.3367583732607</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>266.1421801896182</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>313.3538858578423</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>506.4291208739044</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33506,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.13373767211347</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
-        <v>217.4386117456603</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015063</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789488</v>
+        <v>63.51231025789616</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398812</v>
+        <v>146.4395177398832</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514701</v>
+        <v>218.9456777514725</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658239</v>
+        <v>275.6085835658265</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916934</v>
+        <v>284.7286310916962</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304698</v>
+        <v>255.3912115304724</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396243</v>
+        <v>183.1209945396265</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168105</v>
+        <v>88.8569006416827</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.8195706675339</v>
+        <v>18.81957066753466</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068426</v>
+        <v>111.1099112068439</v>
       </c>
       <c r="L6" t="n">
-        <v>204.4965536153108</v>
+        <v>292.5716995165364</v>
       </c>
       <c r="M6" t="n">
-        <v>248.498540702965</v>
+        <v>383.0198440937168</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284703</v>
+        <v>269.6297444284723</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313124</v>
+        <v>224.2143021313144</v>
       </c>
       <c r="P6" t="n">
-        <v>383.0198440937127</v>
+        <v>160.4233948017442</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239147</v>
+        <v>56.8153602723925</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315179</v>
+        <v>127.8969784315186</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835972</v>
+        <v>219.7514066835982</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588954</v>
+        <v>242.1911106588965</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084014</v>
+        <v>241.9218589084024</v>
       </c>
       <c r="O7" t="n">
-        <v>207.275916612167</v>
+        <v>207.275916612168</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051485</v>
+        <v>153.6020898051493</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504412</v>
+        <v>22.06826641504469</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>466.4238188159148</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419612</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457674</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>105.9950462899274</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1677727752879</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>182.012173774509</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>363.83287642946</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010467</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.261899706047</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010467</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001048</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
